--- a/Excel/関数＿変数＿仕様.xlsx
+++ b/Excel/関数＿変数＿仕様.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="2">
@@ -42,16 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用関数</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -77,13 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用CPP</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Winmain</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Main.cpp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -343,14 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Main.cpp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Main.cpp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,6 +341,287 @@
       <t>ショキカ</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義CPP</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directx.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Init_Dinput</t>
+  </si>
+  <si>
+    <t>Init_Dinput_Key</t>
+  </si>
+  <si>
+    <t>HWND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRESULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directinput_lib.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directinputの初期化関数</t>
+    <rPh sb="12" eb="15">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directinputのキーデバイスの初期化</t>
+    <rPh sb="19" eb="22">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンダ―関数</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーのコントロール関数</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロールの管理関数</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tex_Load</t>
+  </si>
+  <si>
+    <t>Tex_Load_EX</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const char*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPDIRECT3DTEXTURE9*</t>
+  </si>
+  <si>
+    <t>引数7</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数6</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tex.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textureのロード関数</t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Textureのロード関数（EX） </t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tex_Set</t>
+  </si>
+  <si>
+    <t>Tex_Draw</t>
+  </si>
+  <si>
+    <t>Tex_Set_Draw</t>
+  </si>
+  <si>
+    <t>Draw_Ready</t>
+  </si>
+  <si>
+    <t>End_Scene</t>
+  </si>
+  <si>
+    <t>テクスチャをセットする関数</t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャを描画する関数</t>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャをセットするして描画する関数</t>
+    <rPh sb="13" eb="15">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画の準備関数</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画の終了関数</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDirect3DDevice9*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUSTOMVERTEX*</t>
+  </si>
+  <si>
+    <t>Key_Check_Dinput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEYSTATE*</t>
+  </si>
+  <si>
+    <t>Release_pDinput</t>
+  </si>
+  <si>
+    <t>Release_Key</t>
+  </si>
+  <si>
+    <t>directinputを使ったキーチェック関数</t>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directinputの解放関数</t>
+    <rPh sb="12" eb="14">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directinputのキーデバイス解放関数</t>
+    <rPh sb="18" eb="20">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープの位置</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Free_DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの解放関数</t>
+    <rPh sb="7" eb="9">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>カンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -413,7 +665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -595,13 +847,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +912,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,194 +1217,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:BK53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:12" ht="14.25" thickBot="1">
+    <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:14" ht="14.25" thickBot="1">
       <c r="B2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="14.25" thickTop="1">
+    <row r="3" spans="2:14" ht="14.25" thickTop="1">
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1133,246 +1427,464 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1385,9 +1897,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -1400,9 +1914,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1415,9 +1931,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -1430,22 +1948,688 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="4">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:36">
+      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:36">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:36">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="2:36">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="2:36">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="2:36">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="2:36">
+      <c r="B39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:36">
+      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:36">
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:36">
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:36">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:36">
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:36">
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:36">
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:36">
+      <c r="B47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="3"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+    </row>
+    <row r="48" spans="2:36">
+      <c r="B48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+    </row>
+    <row r="49" spans="2:63">
+      <c r="B49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="3"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+    </row>
+    <row r="50" spans="2:63">
+      <c r="B50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="3"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+    </row>
+    <row r="51" spans="2:63">
+      <c r="B51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="3"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+    </row>
+    <row r="52" spans="2:63" ht="14.25" thickBot="1">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15"/>
+      <c r="BA52" s="15"/>
+      <c r="BB52" s="15"/>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="14"/>
+      <c r="BJ52" s="14"/>
+      <c r="BK52" s="14"/>
+    </row>
+    <row r="53" spans="2:63">
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1458,7 +2642,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1477,22 +2661,22 @@
     <row r="2" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:9" ht="14.25" thickBot="1">
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>2</v>
@@ -1506,23 +2690,23 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1530,23 +2714,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1554,23 +2738,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1849,7 +3033,7 @@
   <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1869,45 +3053,45 @@
   <sheetData>
     <row r="2" spans="2:14" ht="14.25" thickBot="1">
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14.25" thickBot="1">
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.25" thickTop="1">
@@ -1915,31 +3099,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -1947,26 +3131,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2">
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:14">
